--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2740004.915734899</v>
+        <v>-2742603.710705561</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>319.940563877894</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>70.43248504061731</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9811492522526</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>295.2163363185219</v>
       </c>
       <c r="I2" t="n">
-        <v>43.86785806562898</v>
+        <v>43.86785806562895</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.5418770458108</v>
+        <v>110.5418770458107</v>
       </c>
       <c r="T2" t="n">
         <v>204.1780969433633</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>112.7678564651337</v>
+        <v>92.85596119227868</v>
       </c>
       <c r="G3" t="n">
         <v>135.0312635940655</v>
@@ -756,7 +756,7 @@
         <v>89.90394266080568</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>19.91189527285529</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.116953416516736</v>
+        <v>2.116953416516708</v>
       </c>
       <c r="S3" t="n">
         <v>128.73407520327</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.1306755145643</v>
+        <v>90.13067551456429</v>
       </c>
       <c r="S4" t="n">
-        <v>190.2335559203904</v>
+        <v>190.2335559203903</v>
       </c>
       <c r="T4" t="n">
         <v>219.6628404482119</v>
@@ -874,10 +874,10 @@
         <v>286.2132921354687</v>
       </c>
       <c r="V4" t="n">
-        <v>33.69146232827683</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>33.6914623282775</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>335.6189877696308</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.95558184798627</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,7 +990,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I6" t="n">
         <v>18.81721868247742</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>102.2115671911216</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>285.2123952220969</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>379.2486623567088</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>382.4827461567857</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>20.95866062610959</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>28.78048096121135</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833843</v>
+        <v>99.97427419833627</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272907</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892435</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444134</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428128</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016443</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977262</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.017717176686</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.1557845699811</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892437</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>99.97427419833807</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892442</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652564</v>
+        <v>56.98118882652593</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652524</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652545</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4307,19 +4307,19 @@
         <v>847.6787171265782</v>
       </c>
       <c r="C2" t="n">
-        <v>524.5064303812308</v>
+        <v>478.7162001861666</v>
       </c>
       <c r="D2" t="n">
-        <v>524.5064303812308</v>
+        <v>407.5722759027149</v>
       </c>
       <c r="E2" t="n">
-        <v>524.5064303812308</v>
+        <v>407.5722759027149</v>
       </c>
       <c r="F2" t="n">
-        <v>524.5064303812308</v>
+        <v>407.5722759027149</v>
       </c>
       <c r="G2" t="n">
-        <v>109.3739563890564</v>
+        <v>407.5722759027149</v>
       </c>
       <c r="H2" t="n">
         <v>109.3739563890564</v>
@@ -4331,34 +4331,34 @@
         <v>248.9490509731313</v>
       </c>
       <c r="K2" t="n">
-        <v>575.2851091032926</v>
+        <v>575.2851091032917</v>
       </c>
       <c r="L2" t="n">
-        <v>1017.035607679883</v>
+        <v>1017.035607679884</v>
       </c>
       <c r="M2" t="n">
         <v>1540.237590999099</v>
       </c>
       <c r="N2" t="n">
-        <v>2076.519337778084</v>
+        <v>2076.519337778085</v>
       </c>
       <c r="O2" t="n">
-        <v>2569.579722854078</v>
+        <v>2569.579722854079</v>
       </c>
       <c r="P2" t="n">
-        <v>2955.894353302312</v>
+        <v>2955.894353302313</v>
       </c>
       <c r="Q2" t="n">
-        <v>3197.827805704724</v>
+        <v>3197.827805704725</v>
       </c>
       <c r="R2" t="n">
-        <v>3253.149432299842</v>
+        <v>3253.149432299843</v>
       </c>
       <c r="S2" t="n">
-        <v>3141.490970637407</v>
+        <v>3141.490970637408</v>
       </c>
       <c r="T2" t="n">
-        <v>2935.250468674414</v>
+        <v>2935.250468674415</v>
       </c>
       <c r="U2" t="n">
         <v>2681.715190041276</v>
@@ -4383,61 +4383,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>888.8020873615123</v>
+        <v>888.8020873615128</v>
       </c>
       <c r="C3" t="n">
-        <v>714.3490580803854</v>
+        <v>714.3490580803858</v>
       </c>
       <c r="D3" t="n">
-        <v>565.4146484191342</v>
+        <v>565.4146484191344</v>
       </c>
       <c r="E3" t="n">
-        <v>406.1771934136787</v>
+        <v>406.1771934136789</v>
       </c>
       <c r="F3" t="n">
-        <v>292.2702676913214</v>
+        <v>312.383293219458</v>
       </c>
       <c r="G3" t="n">
-        <v>155.87505193974</v>
+        <v>175.9880774678766</v>
       </c>
       <c r="H3" t="n">
-        <v>65.06298864599685</v>
+        <v>85.17601417413351</v>
       </c>
       <c r="I3" t="n">
         <v>65.06298864599685</v>
       </c>
       <c r="J3" t="n">
-        <v>155.7664206654044</v>
+        <v>155.7664206654049</v>
       </c>
       <c r="K3" t="n">
-        <v>388.9478577415907</v>
+        <v>388.9478577415912</v>
       </c>
       <c r="L3" t="n">
-        <v>748.8116174223337</v>
+        <v>748.8116174223342</v>
       </c>
       <c r="M3" t="n">
-        <v>1188.112519465049</v>
+        <v>1188.11251946505</v>
       </c>
       <c r="N3" t="n">
-        <v>1653.449054119951</v>
+        <v>1653.449054119952</v>
       </c>
       <c r="O3" t="n">
-        <v>2056.921277259248</v>
+        <v>2056.921277259249</v>
       </c>
       <c r="P3" t="n">
-        <v>2361.410240824784</v>
+        <v>2361.410240824785</v>
       </c>
       <c r="Q3" t="n">
-        <v>2515.033852890301</v>
+        <v>2515.033852890302</v>
       </c>
       <c r="R3" t="n">
-        <v>2512.895516105941</v>
+        <v>2512.895516105942</v>
       </c>
       <c r="S3" t="n">
-        <v>2382.861096708698</v>
+        <v>2382.861096708699</v>
       </c>
       <c r="T3" t="n">
-        <v>2190.088648044978</v>
+        <v>2190.088648044979</v>
       </c>
       <c r="U3" t="n">
         <v>1962.018688312012</v>
@@ -4446,13 +4446,13 @@
         <v>1726.866580080269</v>
       </c>
       <c r="W3" t="n">
-        <v>1472.629223352067</v>
+        <v>1472.629223352068</v>
       </c>
       <c r="X3" t="n">
-        <v>1264.777723146534</v>
+        <v>1264.777723146535</v>
       </c>
       <c r="Y3" t="n">
-        <v>1057.01742438158</v>
+        <v>1057.017424381581</v>
       </c>
     </row>
     <row r="4">
@@ -4486,43 +4486,43 @@
         <v>65.06298864599685</v>
       </c>
       <c r="J4" t="n">
-        <v>75.02005212274273</v>
+        <v>75.02005212274264</v>
       </c>
       <c r="K4" t="n">
-        <v>170.2650045033533</v>
+        <v>170.2650045033534</v>
       </c>
       <c r="L4" t="n">
         <v>322.0515495633495</v>
       </c>
       <c r="M4" t="n">
-        <v>485.3474622992787</v>
+        <v>485.3474622992788</v>
       </c>
       <c r="N4" t="n">
-        <v>652.6180891206068</v>
+        <v>652.618089120607</v>
       </c>
       <c r="O4" t="n">
-        <v>786.8064976079667</v>
+        <v>786.8064976079671</v>
       </c>
       <c r="P4" t="n">
-        <v>882.5658916983276</v>
+        <v>882.5658916983282</v>
       </c>
       <c r="Q4" t="n">
-        <v>893.2769546529789</v>
+        <v>893.2769546529796</v>
       </c>
       <c r="R4" t="n">
-        <v>802.235868274631</v>
+        <v>802.2358682746318</v>
       </c>
       <c r="S4" t="n">
-        <v>610.0807612843378</v>
+        <v>610.0807612843386</v>
       </c>
       <c r="T4" t="n">
-        <v>388.1991042659419</v>
+        <v>388.1991042659428</v>
       </c>
       <c r="U4" t="n">
-        <v>99.09476877556938</v>
+        <v>99.09476877557009</v>
       </c>
       <c r="V4" t="n">
-        <v>65.06298864599685</v>
+        <v>99.09476877557009</v>
       </c>
       <c r="W4" t="n">
         <v>65.06298864599685</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.580917301916</v>
+        <v>1921.870414581993</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1552.907897641581</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.180757366038</v>
+        <v>2308.470254646115</v>
       </c>
     </row>
     <row r="6">
@@ -4629,19 +4629,19 @@
         <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.6287558445192</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4750,25 +4750,25 @@
         <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>727.8125413119537</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>506.0459258814798</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>506.0459258814798</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V7" t="n">
-        <v>506.0459258814798</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="W7" t="n">
-        <v>216.6287558445192</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X7" t="n">
-        <v>216.6287558445192</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.6287558445192</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.678443125552</v>
+        <v>1495.089731832625</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.71592618514</v>
+        <v>1126.127214892214</v>
       </c>
       <c r="D8" t="n">
-        <v>1295.71592618514</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E8" t="n">
-        <v>909.9276735868957</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189673</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4984,25 +4984,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438285</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="V10" t="n">
-        <v>377.0996507379416</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="W10" t="n">
-        <v>87.68248070098099</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218342</v>
+        <v>95.58330932229589</v>
       </c>
       <c r="Y10" t="n">
         <v>66.51211643218342</v>
@@ -5033,31 +5033,31 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400693</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121624</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998289</v>
+        <v>194.8007783998267</v>
       </c>
       <c r="E13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138414</v>
+        <v>916.2946447138391</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703113</v>
+        <v>695.502065570309</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400709</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138407</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703106</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5653,19 +5653,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
         <v>378.192580311172</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,16 +5835,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>197.004324229771</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.192580311172</v>
@@ -6072,13 +6072,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998285</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998285</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998285</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G25" t="n">
-        <v>194.8007783998285</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6364,28 +6364,28 @@
         <v>782.5512955656817</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384018</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
         <v>898.2659412311323</v>
@@ -6409,7 +6409,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6424,7 +6424,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384014</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6643,7 +6643,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
         <v>2438.456847547834</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6783,7 +6783,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,28 +6880,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7020,10 +7020,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7260,10 +7260,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>45.33232789311353</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>284.2505565800657</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,10 +22559,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9811492522526</v>
       </c>
       <c r="H2" t="n">
-        <v>295.2163363185219</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22635,7 +22635,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>32.30135592825016</v>
+        <v>52.21325120110519</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22644,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19.9118952728553</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>166.0524636397191</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9920054808266</v>
+        <v>144.9920054808265</v>
       </c>
       <c r="I4" t="n">
-        <v>97.15402040370428</v>
+        <v>97.15402040370427</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>218.4461809955512</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>252.8315360083135</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823074</v>
+        <v>46.4596884482329</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393108</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667966</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295012</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24379,7 +24379,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>40.32043864788582</v>
+        <v>40.32043864788557</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1136131.890650282</v>
+        <v>1136131.890650283</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1308430.533701948</v>
       </c>
       <c r="C3" t="n">
-        <v>19312.30676833879</v>
+        <v>19312.30676833847</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>232219.4755097968</v>
       </c>
       <c r="K3" t="n">
-        <v>4661.989000940824</v>
+        <v>4661.989000940795</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355118</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0114859742001</v>
+        <v>572.0114859742004</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186733</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186736</v>
@@ -26439,25 +26439,25 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
+        <v>22817.55530496089</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22817.55530496083</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22817.55530496083</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22817.55530496081</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22817.55530496084</v>
+      </c>
+      <c r="O4" t="n">
         <v>22817.55530496082</v>
       </c>
-      <c r="K4" t="n">
-        <v>22817.55530496082</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22817.55530496082</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>22817.55530496083</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22817.55530496083</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22817.55530496083</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22817.55530496084</v>
       </c>
     </row>
     <row r="5">
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1415512.909311426</v>
+        <v>-1415942.468178015</v>
       </c>
       <c r="C6" t="n">
-        <v>-220842.9914337846</v>
+        <v>-220842.9914337843</v>
       </c>
       <c r="D6" t="n">
         <v>-201530.6846654458</v>
       </c>
       <c r="E6" t="n">
-        <v>-441361.6876731297</v>
+        <v>-441396.4255985653</v>
       </c>
       <c r="F6" t="n">
-        <v>-115949.2258657745</v>
+        <v>-115983.9637912102</v>
       </c>
       <c r="G6" t="n">
-        <v>-115949.2258657745</v>
+        <v>-115983.9637912102</v>
       </c>
       <c r="H6" t="n">
-        <v>-115949.2258657745</v>
+        <v>-115983.9637912102</v>
       </c>
       <c r="I6" t="n">
-        <v>-115949.2258657745</v>
+        <v>-115983.9637912102</v>
       </c>
       <c r="J6" t="n">
         <v>-358201.146668673</v>
@@ -26552,10 +26552,10 @@
         <v>-125981.6711588762</v>
       </c>
       <c r="M6" t="n">
-        <v>-211036.6990943881</v>
+        <v>-211036.699094388</v>
       </c>
       <c r="N6" t="n">
-        <v>-125981.6711588762</v>
+        <v>-125981.6711588763</v>
       </c>
       <c r="O6" t="n">
         <v>-145409.389152508</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392017</v>
+        <v>1074.995080392018</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749606</v>
+        <v>813.2873580749607</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.171241461241152e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392017</v>
+        <v>1074.995080392018</v>
       </c>
       <c r="C3" t="n">
-        <v>14.78162020128093</v>
+        <v>14.7816202012807</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749606</v>
+        <v>813.2873580749607</v>
       </c>
       <c r="C4" t="n">
-        <v>18.11409732733216</v>
+        <v>18.11409732733182</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749606</v>
+        <v>813.2873580749605</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733216</v>
+        <v>18.11409732733205</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749606</v>
+        <v>813.2873580749607</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733216</v>
+        <v>18.11409732733182</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>19.06405385105217</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.2823568080673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>87.55745814032034</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0.9994429835159622</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.485179306771727</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.39329958492573</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>204.7509947629275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>189.8041723908835</v>
       </c>
     </row>
     <row r="11">
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.321588262882479</v>
+        <v>4.32158826288248</v>
       </c>
       <c r="H2" t="n">
-        <v>44.25846579724519</v>
+        <v>44.25846579724521</v>
       </c>
       <c r="I2" t="n">
-        <v>166.6080315047769</v>
+        <v>166.608031504777</v>
       </c>
       <c r="J2" t="n">
-        <v>366.7894018268221</v>
+        <v>366.7894018268222</v>
       </c>
       <c r="K2" t="n">
-        <v>549.7222329946376</v>
+        <v>549.7222329946377</v>
       </c>
       <c r="L2" t="n">
-        <v>681.9790397948274</v>
+        <v>681.9790397948275</v>
       </c>
       <c r="M2" t="n">
-        <v>758.8330850648636</v>
+        <v>758.8330850648638</v>
       </c>
       <c r="N2" t="n">
-        <v>771.1117977167785</v>
+        <v>771.1117977167786</v>
       </c>
       <c r="O2" t="n">
-        <v>728.1390044277408</v>
+        <v>728.1390044277409</v>
       </c>
       <c r="P2" t="n">
-        <v>621.4497941878295</v>
+        <v>621.4497941878296</v>
       </c>
       <c r="Q2" t="n">
-        <v>466.6829145233506</v>
+        <v>466.6829145233507</v>
       </c>
       <c r="R2" t="n">
-        <v>271.4659687182917</v>
+        <v>271.4659687182918</v>
       </c>
       <c r="S2" t="n">
-        <v>98.47819254043458</v>
+        <v>98.47819254043461</v>
       </c>
       <c r="T2" t="n">
         <v>18.91775262076806</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3457270610305982</v>
+        <v>0.3457270610305983</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31118,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.312253569145094</v>
+        <v>2.312253569145095</v>
       </c>
       <c r="H3" t="n">
         <v>22.33150157569078</v>
       </c>
       <c r="I3" t="n">
-        <v>79.61048472714469</v>
+        <v>79.61048472714471</v>
       </c>
       <c r="J3" t="n">
         <v>218.4572549690986</v>
       </c>
       <c r="K3" t="n">
-        <v>373.3782441018199</v>
+        <v>373.37824410182</v>
       </c>
       <c r="L3" t="n">
-        <v>502.0531269321399</v>
+        <v>502.05312693214</v>
       </c>
       <c r="M3" t="n">
-        <v>585.8723188136494</v>
+        <v>585.8723188136495</v>
       </c>
       <c r="N3" t="n">
-        <v>601.3786157751532</v>
+        <v>601.3786157751533</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1439445851487</v>
+        <v>550.1439445851488</v>
       </c>
       <c r="P3" t="n">
-        <v>441.5390170764873</v>
+        <v>441.5390170764874</v>
       </c>
       <c r="Q3" t="n">
         <v>295.1571398087668</v>
@@ -31154,10 +31154,10 @@
         <v>143.5625505474472</v>
       </c>
       <c r="S3" t="n">
-        <v>42.94909590056783</v>
+        <v>42.94909590056785</v>
       </c>
       <c r="T3" t="n">
-        <v>9.320004517738337</v>
+        <v>9.320004517738338</v>
       </c>
       <c r="U3" t="n">
         <v>0.1521219453384931</v>
@@ -31197,25 +31197,25 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.938515718739703</v>
+        <v>1.938515718739704</v>
       </c>
       <c r="H4" t="n">
         <v>17.23516702661301</v>
       </c>
       <c r="I4" t="n">
-        <v>58.296454523554</v>
+        <v>58.29645452355402</v>
       </c>
       <c r="J4" t="n">
         <v>137.053061314897</v>
       </c>
       <c r="K4" t="n">
-        <v>225.2202807772127</v>
+        <v>225.2202807772128</v>
       </c>
       <c r="L4" t="n">
-        <v>288.2044187660828</v>
+        <v>288.2044187660829</v>
       </c>
       <c r="M4" t="n">
-        <v>303.8711503475336</v>
+        <v>303.8711503475337</v>
       </c>
       <c r="N4" t="n">
         <v>296.6457735776859</v>
@@ -31224,22 +31224,22 @@
         <v>274.000385408772</v>
       </c>
       <c r="P4" t="n">
-        <v>234.4546647464818</v>
+        <v>234.4546647464819</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.3242571391946</v>
+        <v>162.3242571391947</v>
       </c>
       <c r="R4" t="n">
-        <v>87.16271586260518</v>
+        <v>87.1627158626052</v>
       </c>
       <c r="S4" t="n">
-        <v>33.78304211658191</v>
+        <v>33.78304211658192</v>
       </c>
       <c r="T4" t="n">
-        <v>8.282748980069639</v>
+        <v>8.282748980069641</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1057372210221657</v>
+        <v>0.1057372210221658</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32084,10 +32084,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32555,19 +32555,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32707,7 +32707,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32792,16 +32792,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33980,13 +33980,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>185.7434973001358</v>
+        <v>185.7434973001359</v>
       </c>
       <c r="K2" t="n">
-        <v>329.632381949657</v>
+        <v>329.6323819496571</v>
       </c>
       <c r="L2" t="n">
-        <v>446.2126248248401</v>
+        <v>446.2126248248402</v>
       </c>
       <c r="M2" t="n">
-        <v>528.4868518375908</v>
+        <v>528.4868518375911</v>
       </c>
       <c r="N2" t="n">
-        <v>541.6987341201875</v>
+        <v>541.6987341201877</v>
       </c>
       <c r="O2" t="n">
-        <v>498.0407930060541</v>
+        <v>498.0407930060542</v>
       </c>
       <c r="P2" t="n">
-        <v>390.21679843256</v>
+        <v>390.2167984325601</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.3772246489011</v>
+        <v>244.3772246489012</v>
       </c>
       <c r="R2" t="n">
-        <v>55.8804309041596</v>
+        <v>55.88043090415965</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>91.61962830243189</v>
+        <v>91.61962830243195</v>
       </c>
       <c r="K3" t="n">
-        <v>235.5368051274609</v>
+        <v>235.536805127461</v>
       </c>
       <c r="L3" t="n">
-        <v>363.4987471522657</v>
+        <v>363.4987471522658</v>
       </c>
       <c r="M3" t="n">
-        <v>443.7382848916311</v>
+        <v>443.7382848916312</v>
       </c>
       <c r="N3" t="n">
-        <v>470.0369036918199</v>
+        <v>470.03690369182</v>
       </c>
       <c r="O3" t="n">
-        <v>407.5477001407043</v>
+        <v>407.5477001407044</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5646096621571</v>
+        <v>307.5646096621572</v>
       </c>
       <c r="Q3" t="n">
         <v>155.1753657227453</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.0576398755009</v>
+        <v>10.05763987550093</v>
       </c>
       <c r="K4" t="n">
-        <v>96.20702260667736</v>
+        <v>96.20702260667741</v>
       </c>
       <c r="L4" t="n">
-        <v>153.3197424848445</v>
+        <v>153.3197424848446</v>
       </c>
       <c r="M4" t="n">
         <v>164.9453663999286</v>
@@ -34869,13 +34869,13 @@
         <v>168.9602291124527</v>
       </c>
       <c r="O4" t="n">
-        <v>135.5438469569292</v>
+        <v>135.5438469569293</v>
       </c>
       <c r="P4" t="n">
-        <v>96.72666069733421</v>
+        <v>96.72666069733427</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.81925550974879</v>
+        <v>10.81925550974881</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37479,10 +37479,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
